--- a/設計書/Shino/プロジェクト型演習_成果物フォーマット(コメント).xlsx
+++ b/設計書/Shino/プロジェクト型演習_成果物フォーマット(コメント).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\設計書\Shino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD263814-7776-4B06-B8DD-1B1C6FF7B578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451EDA9F-397B-4E3F-8535-6694CE8196D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="11440" activeTab="3" xr2:uid="{5C6D9BCF-9126-452D-B65E-8AFDE7F98C44}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{5C6D9BCF-9126-452D-B65E-8AFDE7F98C44}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -457,6 +457,8 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1170,23 +1172,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1197,92 +1244,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1290,17 +1268,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1317,85 +1286,115 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1404,10 +1403,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1415,6 +1423,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1434,47 +1448,35 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3526,7 +3528,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(tucbean:TaskUserCommentBean):int</a:t>
+            <a:t>(commentId:int):int</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:solidFill>
@@ -4708,6 +4710,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4764,6 +4770,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4822,6 +4832,10 @@
           </a:avLst>
         </a:prstGeom>
         <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -5175,163 +5189,163 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1" thickBot="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1" thickTop="1">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="4"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="2"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="4"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="2"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="4"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="2"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="4"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="2"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1" thickBot="1">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="4"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="2"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1" thickTop="1">
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="2"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="8" t="s">
+      <c r="H13" s="24"/>
+      <c r="I13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="9"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="63">
+      <c r="H14" s="24"/>
+      <c r="I14" s="31">
         <v>45636</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="9"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="9"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -6338,7 +6352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006DA7A3-0A4C-415D-8DD5-355387B75C2B}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -6351,214 +6365,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="53"/>
+      <c r="F1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="64">
+      <c r="E2" s="66"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="69">
         <v>45636</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="25"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="49"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="37" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="38"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="40" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="41"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="40" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="41"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="40" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="41"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="65" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="41"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="44"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="40" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="41"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="45"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="40" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="41"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="40" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="41"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="50"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="39"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -7549,21 +7563,6 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="A5:C5"/>
@@ -7576,6 +7575,21 @@
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="F2:G4"/>
     <mergeCell ref="H2:H4"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -7590,8 +7604,8 @@
   </sheetPr>
   <dimension ref="A1:J1037"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H66" sqref="H66:J67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="15" customHeight="1"/>
@@ -7603,882 +7617,882 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="53"/>
+      <c r="F1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="64">
+      <c r="E2" s="66"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="69">
         <v>45636</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="25"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="49"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="55" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="38"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" thickBot="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="50"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="71"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="71"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="68"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="71"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="71"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="68"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="71"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="71"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="71"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
-      <c r="A15" s="68"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="71"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="71"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="71"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="71"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" ht="21" customHeight="1">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="71"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" ht="21" customHeight="1">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="71"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" ht="21" customHeight="1">
-      <c r="A21" s="68"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="71"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" ht="21" customHeight="1">
-      <c r="A22" s="68"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="71"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" ht="21" customHeight="1">
-      <c r="A23" s="68"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="71"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" ht="21" customHeight="1">
-      <c r="A24" s="68"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="71"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" ht="21" customHeight="1">
-      <c r="A25" s="68"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="71"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" ht="21" customHeight="1">
-      <c r="A26" s="68"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="71"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1">
-      <c r="A27" s="68"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="71"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="68"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="71"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="68"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="71"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="68"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="71"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="68"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="71"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="16"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="68"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="71"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="16"/>
     </row>
     <row r="33" spans="1:10" ht="21" customHeight="1">
-      <c r="A33" s="68"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="71"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10" ht="21" customHeight="1">
-      <c r="A34" s="68"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="71"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10" ht="21" customHeight="1">
-      <c r="A35" s="68"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="71"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10" ht="21" customHeight="1">
-      <c r="A36" s="68"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="71"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:10" ht="21" customHeight="1">
-      <c r="A37" s="68"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="71"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="16"/>
     </row>
     <row r="38" spans="1:10" ht="21" customHeight="1">
-      <c r="A38" s="68"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="71"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="16"/>
     </row>
     <row r="39" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A39" s="73"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="72"/>
+      <c r="A39" s="98"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="100"/>
     </row>
     <row r="40" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="41"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="33"/>
     </row>
     <row r="41" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="40" t="s">
+      <c r="B41" s="25"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="57" t="s">
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J41" s="58" t="s">
+      <c r="J41" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="57" t="s">
+      <c r="B42" s="25"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="57" t="s">
+      <c r="E42" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="57" t="s">
+      <c r="F42" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G42" s="57" t="s">
+      <c r="G42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="59" t="s">
+      <c r="H42" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="41"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="33"/>
     </row>
     <row r="43" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61" t="s">
+      <c r="B43" s="25"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="62"/>
-      <c r="G43" s="61" t="s">
+      <c r="F43" s="12"/>
+      <c r="G43" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="40"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="41"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="33"/>
     </row>
     <row r="44" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="41"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="40" t="s">
+      <c r="B45" s="25"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="57" t="s">
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J45" s="58" t="s">
+      <c r="J45" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="57" t="s">
+      <c r="B46" s="25"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="57" t="s">
+      <c r="E46" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="57" t="s">
+      <c r="F46" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G46" s="57" t="s">
+      <c r="G46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="59" t="s">
+      <c r="H46" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="I46" s="10"/>
-      <c r="J46" s="41"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="33"/>
     </row>
     <row r="47" spans="1:10" ht="19.5" customHeight="1">
       <c r="A47" s="75" t="s">
         <v>53</v>
       </c>
       <c r="B47" s="76"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24" t="s">
+      <c r="C47" s="81"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24" t="s">
+      <c r="F47" s="45"/>
+      <c r="G47" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="H47" s="22"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="91"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="72"/>
     </row>
     <row r="48" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A48" s="78"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="94"/>
+      <c r="A48" s="77"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="74"/>
     </row>
     <row r="49" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A49" s="56" t="s">
+      <c r="A49" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="41"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="33"/>
     </row>
     <row r="50" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="40" t="s">
+      <c r="B50" s="25"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="57" t="s">
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J50" s="58" t="s">
+      <c r="J50" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="57" t="s">
+      <c r="B51" s="25"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="57" t="s">
+      <c r="E51" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="57" t="s">
+      <c r="F51" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="57" t="s">
+      <c r="G51" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H51" s="59" t="s">
+      <c r="H51" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="I51" s="10"/>
-      <c r="J51" s="41"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="33"/>
     </row>
     <row r="52" spans="1:10" ht="19.5" customHeight="1">
       <c r="A52" s="75" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="76"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="24" t="s">
+      <c r="C52" s="81"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="82"/>
-      <c r="G52" s="95" t="s">
+      <c r="F52" s="84"/>
+      <c r="G52" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="H52" s="84"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="86"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="90"/>
     </row>
     <row r="53" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A53" s="78"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="87"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="89"/>
+      <c r="A53" s="77"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="92"/>
+      <c r="J53" s="93"/>
     </row>
     <row r="54" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A54" s="56" t="s">
+      <c r="A54" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="41"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="33"/>
     </row>
     <row r="55" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="40" t="s">
+      <c r="B55" s="25"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="57" t="s">
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J55" s="58" t="s">
+      <c r="J55" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A56" s="56" t="s">
+      <c r="A56" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="57" t="s">
+      <c r="B56" s="25"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E56" s="57" t="s">
+      <c r="E56" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="57" t="s">
+      <c r="F56" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G56" s="57" t="s">
+      <c r="G56" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H56" s="59" t="s">
+      <c r="H56" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="I56" s="10"/>
-      <c r="J56" s="41"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="33"/>
     </row>
     <row r="57" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A57" s="60" t="s">
+      <c r="A57" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61" t="s">
+      <c r="B57" s="25"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F57" s="62"/>
-      <c r="G57" s="61" t="s">
+      <c r="F57" s="12"/>
+      <c r="G57" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H57" s="40"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="41"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="33"/>
     </row>
     <row r="58" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A58" s="56" t="s">
+      <c r="A58" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="41"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="33"/>
     </row>
     <row r="59" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="40" t="s">
+      <c r="B59" s="25"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="57" t="s">
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J59" s="58" t="s">
+      <c r="J59" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A60" s="56" t="s">
+      <c r="A60" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="57" t="s">
+      <c r="B60" s="25"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="57" t="s">
+      <c r="E60" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F60" s="57" t="s">
+      <c r="F60" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G60" s="57" t="s">
+      <c r="G60" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H60" s="59" t="s">
+      <c r="H60" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="I60" s="10"/>
-      <c r="J60" s="41"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="33"/>
     </row>
     <row r="61" spans="1:10" ht="19.5" customHeight="1">
       <c r="A61" s="75" t="s">
@@ -8486,89 +8500,89 @@
       </c>
       <c r="B61" s="76"/>
       <c r="C61" s="76"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24" t="s">
+      <c r="D61" s="45"/>
+      <c r="E61" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24" t="s">
+      <c r="F61" s="45"/>
+      <c r="G61" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="H61" s="90" t="s">
+      <c r="H61" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="I61" s="90"/>
-      <c r="J61" s="91"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="72"/>
     </row>
     <row r="62" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A62" s="78"/>
-      <c r="B62" s="79"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="81"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="93"/>
-      <c r="I62" s="93"/>
-      <c r="J62" s="94"/>
+      <c r="A62" s="77"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="74"/>
     </row>
     <row r="63" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A63" s="56" t="s">
+      <c r="A63" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="41"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="33"/>
     </row>
     <row r="64" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A64" s="56" t="s">
+      <c r="A64" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="40" t="s">
+      <c r="B64" s="25"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="57" t="s">
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J64" s="58" t="s">
+      <c r="J64" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A65" s="56" t="s">
+      <c r="A65" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="57" t="s">
+      <c r="B65" s="25"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E65" s="57" t="s">
+      <c r="E65" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="57" t="s">
+      <c r="F65" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G65" s="57" t="s">
+      <c r="G65" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="59" t="s">
+      <c r="H65" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="I65" s="10"/>
-      <c r="J65" s="41"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="33"/>
     </row>
     <row r="66" spans="1:10" ht="19.5" customHeight="1">
       <c r="A66" s="75" t="s">
@@ -8576,31 +8590,31 @@
       </c>
       <c r="B66" s="76"/>
       <c r="C66" s="76"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24" t="s">
+      <c r="D66" s="45"/>
+      <c r="E66" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24" t="s">
+      <c r="F66" s="45"/>
+      <c r="G66" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="H66" s="90" t="s">
+      <c r="H66" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="I66" s="90"/>
-      <c r="J66" s="91"/>
+      <c r="I66" s="71"/>
+      <c r="J66" s="72"/>
     </row>
     <row r="67" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A67" s="78"/>
-      <c r="B67" s="79"/>
-      <c r="C67" s="79"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="81"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="81"/>
-      <c r="H67" s="93"/>
-      <c r="I67" s="93"/>
-      <c r="J67" s="94"/>
+      <c r="A67" s="77"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="73"/>
+      <c r="J67" s="74"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="69" spans="1:10" ht="12.75" customHeight="1"/>
@@ -9574,6 +9588,60 @@
     <row r="1037" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="A52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:J53"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:J48"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="A47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="D50:H50"/>
     <mergeCell ref="F66:F67"/>
     <mergeCell ref="G66:G67"/>
     <mergeCell ref="H66:J67"/>
@@ -9590,60 +9658,6 @@
     <mergeCell ref="H65:J65"/>
     <mergeCell ref="A66:C67"/>
     <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="A47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:J48"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="A52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:J53"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9656,7 +9670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8CD92E-4CFD-439D-860D-4FB22B511F0A}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -9669,750 +9683,750 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="53"/>
+      <c r="F1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="102"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="64">
+      <c r="E2" s="66"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="69">
         <v>45637</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="25"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="49"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="97"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="99"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="97"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="99"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="97"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="99"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="97"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="99"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="97"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="99"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="97"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="99"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="97"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="99"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="97"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="99"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="97"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="99"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="97"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="99"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="97"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="99"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="97"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="99"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A17" s="97"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="99"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19"/>
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A18" s="97"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="99"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A19" s="97"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="99"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A20" s="97"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="99"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A21" s="97"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="99"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A22" s="97"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="99"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A23" s="97"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="99"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A24" s="97"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="99"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A25" s="97"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="99"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A26" s="97"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="99"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A27" s="97"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="99"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A28" s="97"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="99"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A29" s="97"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="99"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A30" s="97"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="99"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A31" s="97"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="99"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="19"/>
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A32" s="97"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="99"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
     </row>
     <row r="33" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A33" s="97"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="99"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="97"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="99"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="97"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="98"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="99"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="97"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="99"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="19"/>
     </row>
     <row r="37" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A37" s="97"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="99"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
     </row>
     <row r="38" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A38" s="97"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="98"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="99"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="19"/>
     </row>
     <row r="39" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A39" s="97"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="98"/>
-      <c r="J39" s="98"/>
-      <c r="K39" s="99"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="19"/>
     </row>
     <row r="40" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A40" s="97"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="98"/>
-      <c r="K40" s="99"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="19"/>
     </row>
     <row r="41" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A41" s="97"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="98"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="98"/>
-      <c r="K41" s="99"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="19"/>
     </row>
     <row r="42" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A42" s="97"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="98"/>
-      <c r="H42" s="98"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="99"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="19"/>
     </row>
     <row r="43" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A43" s="97"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98"/>
-      <c r="H43" s="98"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="99"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="19"/>
     </row>
     <row r="44" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A44" s="97"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="99"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="19"/>
     </row>
     <row r="45" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A45" s="97"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98"/>
-      <c r="G45" s="98"/>
-      <c r="H45" s="98"/>
-      <c r="I45" s="98"/>
-      <c r="J45" s="98"/>
-      <c r="K45" s="99"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="19"/>
     </row>
     <row r="46" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A46" s="97"/>
-      <c r="B46" s="98"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="98"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="99"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="19"/>
     </row>
     <row r="47" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A47" s="97"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="98"/>
-      <c r="H47" s="98"/>
-      <c r="I47" s="98"/>
-      <c r="J47" s="98"/>
-      <c r="K47" s="99"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="19"/>
     </row>
     <row r="48" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A48" s="97"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="98"/>
-      <c r="I48" s="98"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="99"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="19"/>
     </row>
     <row r="49" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A49" s="97"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="98"/>
-      <c r="I49" s="98"/>
-      <c r="J49" s="98"/>
-      <c r="K49" s="99"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="19"/>
     </row>
     <row r="50" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A50" s="97"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="98"/>
-      <c r="G50" s="98"/>
-      <c r="H50" s="98"/>
-      <c r="I50" s="98"/>
-      <c r="J50" s="98"/>
-      <c r="K50" s="99"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="19"/>
     </row>
     <row r="51" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A51" s="97"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="98"/>
-      <c r="G51" s="98"/>
-      <c r="H51" s="98"/>
-      <c r="I51" s="98"/>
-      <c r="J51" s="98"/>
-      <c r="K51" s="99"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="19"/>
     </row>
     <row r="52" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A52" s="97"/>
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="98"/>
-      <c r="J52" s="98"/>
-      <c r="K52" s="99"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="19"/>
     </row>
     <row r="53" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A53" s="97"/>
-      <c r="B53" s="98"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="98"/>
-      <c r="H53" s="98"/>
-      <c r="I53" s="98"/>
-      <c r="J53" s="98"/>
-      <c r="K53" s="99"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="19"/>
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A54" s="97"/>
-      <c r="B54" s="98"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="98"/>
-      <c r="H54" s="98"/>
-      <c r="I54" s="98"/>
-      <c r="J54" s="98"/>
-      <c r="K54" s="99"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="19"/>
     </row>
     <row r="55" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A55" s="97"/>
-      <c r="B55" s="98"/>
-      <c r="C55" s="98"/>
-      <c r="D55" s="98"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="98"/>
-      <c r="G55" s="98"/>
-      <c r="H55" s="98"/>
-      <c r="I55" s="98"/>
-      <c r="J55" s="98"/>
-      <c r="K55" s="99"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="19"/>
     </row>
     <row r="56" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A56" s="100"/>
-      <c r="B56" s="101"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="101"/>
-      <c r="K56" s="102"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="22"/>
     </row>
     <row r="57" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="58" spans="1:11" ht="12.75" customHeight="1"/>

--- a/設計書/Shino/プロジェクト型演習_成果物フォーマット(コメント).xlsx
+++ b/設計書/Shino/プロジェクト型演習_成果物フォーマット(コメント).xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\設計書\Shino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\ProjectX\設計書\Shino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451EDA9F-397B-4E3F-8535-6694CE8196D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE2EEE6-1347-48DB-AE81-332FFC900A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{5C6D9BCF-9126-452D-B65E-8AFDE7F98C44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5C6D9BCF-9126-452D-B65E-8AFDE7F98C44}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
     <sheet name="ユースケース記述" sheetId="4" r:id="rId2"/>
     <sheet name="画面設計書" sheetId="5" r:id="rId3"/>
     <sheet name="詳細クラス図" sheetId="6" r:id="rId4"/>
+    <sheet name="画面遷移図" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="63">
   <si>
     <t>チーム名</t>
   </si>
@@ -424,6 +425,59 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>コメント部分については画面遷移図がないため作成をお願いいたします。</t>
+    <rPh sb="4" eb="6">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="11" eb="16">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、現在の基本システムの画面遷移図も仕様書に書いてはあるのですが、多少変更になっている部分がありましたら、そちらも修正し最終版の画面遷移図をこちらに作成願いします。</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="13" eb="18">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>タショウヘンコウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>サイシュウバン</t>
+    </rPh>
+    <rPh sb="65" eb="70">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1533,8 +1587,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1041401" y="1600201"/>
-          <a:ext cx="2666999" cy="4769287"/>
+          <a:off x="1046481" y="1596391"/>
+          <a:ext cx="2664459" cy="4769287"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1673,6 +1727,81 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E2C05B0-17D7-474A-9D85-AAC9E31D8497}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7589520" y="5349240"/>
+          <a:ext cx="3482340" cy="1630680"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -170567"/>
+            <a:gd name="adj2" fmla="val -16005"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>コメント内容はいろんなユーザーで行い、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>コメント分くらいほしい（新規コメントが下に追記されるのか、上に追記されるのか、また名前の長いユーザーが問う呼応した場合のレイアウトの動きなども確認することができるため</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3528,7 +3657,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(commentId:int):int</a:t>
+            <a:t>(tucbean:TaskUserCommentBean):int</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:solidFill>
@@ -4710,10 +4839,6 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4770,10 +4895,6 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4832,10 +4953,6 @@
           </a:avLst>
         </a:prstGeom>
         <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -5178,13 +5295,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3693A2B4-38B7-4DD9-A943-2201A28C9E9C}">
   <dimension ref="C1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16" width="7.08203125" style="1" customWidth="1"/>
+    <col min="1" max="16" width="7.09765625" style="1" customWidth="1"/>
     <col min="17" max="26" width="8" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="13.25" style="1"/>
+    <col min="27" max="16384" width="13.19921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1" thickBot="1"/>
@@ -6352,16 +6471,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006DA7A3-0A4C-415D-8DD5-355387B75C2B}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="4.6640625" style="1" customWidth="1"/>
-    <col min="4" max="10" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="4.69921875" style="1" customWidth="1"/>
+    <col min="4" max="10" width="15.296875" style="1" customWidth="1"/>
     <col min="11" max="26" width="8" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="13.25" style="1"/>
+    <col min="27" max="16384" width="13.19921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
@@ -7604,16 +7723,16 @@
   </sheetPr>
   <dimension ref="A1:J1037"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="4.6640625" style="1" customWidth="1"/>
-    <col min="4" max="10" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="4.69921875" style="1" customWidth="1"/>
+    <col min="4" max="10" width="15.296875" style="1" customWidth="1"/>
     <col min="11" max="26" width="8" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="13.25" style="1"/>
+    <col min="27" max="16384" width="13.19921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
@@ -9670,16 +9789,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8CD92E-4CFD-439D-860D-4FB22B511F0A}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="4.6640625" style="1" customWidth="1"/>
-    <col min="4" max="11" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="4.69921875" style="1" customWidth="1"/>
+    <col min="4" max="11" width="15.296875" style="1" customWidth="1"/>
     <col min="12" max="27" width="8" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="13.25" style="1"/>
+    <col min="28" max="16384" width="13.19921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
@@ -11388,4 +11507,33 @@
   <pageSetup paperSize="9" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FCFD67-44AC-45D5-9C66-B594BA6A22CB}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/設計書/Shino/プロジェクト型演習_成果物フォーマット(コメント).xlsx
+++ b/設計書/Shino/プロジェクト型演習_成果物フォーマット(コメント).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\ProjectX\設計書\Shino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\設計書\Shino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE2EEE6-1347-48DB-AE81-332FFC900A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8BA35A-0AAA-46F3-98EE-370708C0EA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5C6D9BCF-9126-452D-B65E-8AFDE7F98C44}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{5C6D9BCF-9126-452D-B65E-8AFDE7F98C44}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
   <si>
     <t>チーム名</t>
   </si>
@@ -413,7 +413,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コメント削除完了画面のボタン+A1</t>
+    <t>コメント削除完了画面のボタン</t>
     <rPh sb="4" eb="6">
       <t>サクジョ</t>
     </rPh>
@@ -426,56 +426,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コメント部分については画面遷移図がないため作成をお願いいたします。</t>
-    <rPh sb="4" eb="6">
-      <t>ブブン</t>
+    <t>タスク一覧表示画面に戻る</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
     </rPh>
-    <rPh sb="11" eb="16">
-      <t>ガメンセンイズ</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="21" eb="23">
-      <t>サクセイ</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>また、現在の基本システムの画面遷移図も仕様書に書いてはあるのですが、多少変更になっている部分がありましたら、そちらも修正し最終版の画面遷移図をこちらに作成願いします。</t>
-    <rPh sb="3" eb="5">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="13" eb="18">
-      <t>ガメンセンイズ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="34" eb="38">
-      <t>タショウヘンコウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>サイシュウバン</t>
-    </rPh>
-    <rPh sb="65" eb="70">
-      <t>ガメンセンイズ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>ネガ</t>
-    </rPh>
+    <t>/task-list.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※水色で表示されている部分は新規で作成したクラス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1316,14 +1287,14 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1430,7 +1401,25 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1443,24 +1432,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1555,50 +1526,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>330201</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>25838</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE619742-D034-F807-43CA-9ABA4B43C547}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1046481" y="1596391"/>
-          <a:ext cx="2664459" cy="4769287"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -1624,7 +1551,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1668,7 +1595,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1712,7 +1639,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1729,79 +1656,92 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>81856</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E2C05B0-17D7-474A-9D85-AAC9E31D8497}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{244FC7B3-DA43-0D9F-F9B6-6B1CBBD4C1D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7589520" y="5349240"/>
-          <a:ext cx="3482340" cy="1630680"/>
+          <a:off x="996951" y="1568451"/>
+          <a:ext cx="1917699" cy="2723455"/>
         </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -170567"/>
-            <a:gd name="adj2" fmla="val -16005"/>
-          </a:avLst>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>コメント内容はいろんなユーザーで行い、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-            <a:t>5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>コメント分くらいほしい（新規コメントが下に追記されるのか、上に追記されるのか、また名前の長いユーザーが問う呼応した場合のレイアウトの動きなども確認することができるため</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279401</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>868860</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B315FA09-02B0-14F7-DDA3-E93858A3C451}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990601" y="4349751"/>
+          <a:ext cx="2113459" cy="2260599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2567,8 +2507,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1075767</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>36919</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2583,8 +2523,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2501901" y="1162051"/>
-          <a:ext cx="7882966" cy="7726768"/>
+          <a:off x="2476501" y="1162051"/>
+          <a:ext cx="7844866" cy="3968749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2706,7 +2646,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>638988</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2722,7 +2662,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2552700" y="1492250"/>
-          <a:ext cx="3826688" cy="3238500"/>
+          <a:ext cx="3826688" cy="3346450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2781,7 +2721,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>1004185</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2797,7 +2737,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6470650" y="1485900"/>
-          <a:ext cx="3779135" cy="3276600"/>
+          <a:ext cx="3779135" cy="3365500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2981,7 +2921,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1054101</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2998,7 +2938,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3298309" y="2012950"/>
-          <a:ext cx="2327792" cy="2343150"/>
+          <a:ext cx="2327792" cy="2660650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3055,6 +2995,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>- commentId:int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>-</a:t>
           </a:r>
           <a:r>
@@ -3067,7 +3021,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  taskId: int</a:t>
+            <a:t> taskId: int</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:solidFill>
@@ -3108,6 +3062,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>- comment : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-updateDatetime:Timestamp</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:solidFill>
@@ -3745,15 +3713,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1067834</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1074184</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1041400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7605</xdr:rowOff>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>58405</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3768,7 +3736,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3303034" y="2971800"/>
+          <a:off x="3309384" y="3340100"/>
           <a:ext cx="2310366" cy="13955"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3971,7 +3939,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1054101</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -3996,8 +3964,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5626101" y="3184525"/>
-          <a:ext cx="984249" cy="723900"/>
+          <a:off x="5626101" y="3343275"/>
+          <a:ext cx="984249" cy="565150"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4092,7 +4060,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1063109</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4112,7 +4080,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2311400" y="2692400"/>
-          <a:ext cx="986909" cy="492125"/>
+          <a:ext cx="986909" cy="650875"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4154,7 +4122,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1063109</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4174,7 +4142,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2305050" y="2168525"/>
-          <a:ext cx="993259" cy="1016000"/>
+          <a:ext cx="993259" cy="1174750"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4807,7 +4775,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -4832,13 +4800,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2317750" y="3184525"/>
-          <a:ext cx="980559" cy="577850"/>
+          <a:off x="2317750" y="3343275"/>
+          <a:ext cx="980559" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4863,7 +4835,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -4888,13 +4860,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2317750" y="3184525"/>
-          <a:ext cx="980559" cy="1111250"/>
+          <a:off x="2317750" y="3343275"/>
+          <a:ext cx="980559" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4953,6 +4929,3524 @@
           </a:avLst>
         </a:prstGeom>
         <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3391989-534F-E090-CD10-7BDE66E579F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="679450" y="1612900"/>
+          <a:ext cx="1085850" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログイン画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A808C2A-4650-3961-7DAF-6C34BF0B7C24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190750" y="1619250"/>
+          <a:ext cx="1060450" cy="336550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メニュー画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C7CDD8-A33A-5A27-4980-32896CE2B70C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3663950" y="1625600"/>
+          <a:ext cx="1219200" cy="336550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タスク登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1601BA6A-C9FD-787C-21B6-047BE9C806CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5492750" y="1625600"/>
+          <a:ext cx="1485900" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タスク登録完了画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C0876B-15B2-C7FF-ADF7-FE8ABEF10710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5499100" y="2120900"/>
+          <a:ext cx="914400" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>エラー画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形: 角を丸くする 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1006D410-F78A-F1DB-1771-B5A3185C4A79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3638550" y="2660650"/>
+          <a:ext cx="1504950" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タスク一覧表示画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形: 角を丸くする 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{345ABE60-AEF9-7FBD-4C5D-AB5E0F19E699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7194550" y="2647950"/>
+          <a:ext cx="1244600" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タスク編集画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形: 角を丸くする 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA66D04D-70D1-ADE6-F0DB-E92D5FFD8AC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8870950" y="2660650"/>
+          <a:ext cx="1473200" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タスク編集完了画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="四角形: 角を丸くする 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16EA53EA-574F-F7A0-11B0-C0BB1C8481C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8883650" y="3238500"/>
+          <a:ext cx="933450" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>エラー画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形: 角を丸くする 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40EBB8A4-5D63-68C0-ADA7-DAE312B03603}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7194550" y="6337300"/>
+          <a:ext cx="1492250" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タスク削除確認画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4A3722-2935-6EC3-2BCE-3C4A8D0D07CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8890000" y="6318250"/>
+          <a:ext cx="1485900" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タスク削除完了画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="四角形: 角を丸くする 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B36EAF-8703-83C4-90CA-9421B1EB0CC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8864600" y="4343400"/>
+          <a:ext cx="927100" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>エラー画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="四角形: 角を丸くする 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EB1CEED-A76E-15CF-F648-9F6982610107}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3797300" y="6807200"/>
+          <a:ext cx="1206500" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="四角形: 角を丸くする 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678ED83E-1266-CAEA-4DD8-17D6FA1592EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5499100" y="2641600"/>
+          <a:ext cx="1225550" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タスク詳細画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="四角形: 角を丸くする 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F24D8E40-8753-F2BA-A26C-43C8D528B5C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8870950" y="3822700"/>
+          <a:ext cx="1619250" cy="336550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コメント登録成功画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="コネクタ: カギ線 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8893B843-D24D-003D-67B8-815625934643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="55563" y="2779713"/>
+          <a:ext cx="5511800" cy="3178175"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4147"/>
+            <a:gd name="adj2" fmla="val 130869"/>
+            <a:gd name="adj3" fmla="val 104147"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>184151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="コネクタ: カギ線 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9696FDAB-8941-C40D-BC46-8059EF8935D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="865188" y="1598613"/>
+          <a:ext cx="171450" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -133333"/>
+            <a:gd name="adj2" fmla="val 142105"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C7C1BAF-41CB-4747-491B-2B390F03B54E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1765300" y="1784350"/>
+          <a:ext cx="425450" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>193675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51692F84-1B65-ABC7-705A-E347C99D8B15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3251200" y="1787525"/>
+          <a:ext cx="412750" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>193675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59D1CBFD-99C3-A56A-EF65-05C67F67783D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4883150" y="1784350"/>
+          <a:ext cx="609600" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="コネクタ: カギ線 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FE1960-1870-145A-747B-598FD4C38D27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3251200" y="1787525"/>
+          <a:ext cx="387350" cy="1031875"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="コネクタ: カギ線 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95FF1210-2100-8202-1BA1-470ED7103B1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3251200" y="1787525"/>
+          <a:ext cx="546100" cy="5178425"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 34884"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4FA535-E4E4-87AF-AA2D-FE27F2DF25C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="2819400"/>
+          <a:ext cx="355600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD755951-BC76-077A-9145-9A64E340D3EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="2819400"/>
+          <a:ext cx="469900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD8A17D-DA06-6F9B-E029-9CED356DA2B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8439150" y="2819400"/>
+          <a:ext cx="431800" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>311151</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215901</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>225424</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="コネクタ: カギ線 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD38E7DC-3401-BC23-F17F-5119BC2134B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4725988" y="1509712"/>
+          <a:ext cx="320675" cy="1225550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="コネクタ: カギ線 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6660BCCE-297D-B73E-02D3-C4AC4A59049A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8143875" y="2663825"/>
+          <a:ext cx="412750" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="四角形: 角を丸くする 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5680FC9-E443-D9BF-DAE0-7035AFE2385F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8896350" y="6921500"/>
+          <a:ext cx="920750" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>エラー画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311149</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="コネクタ: カギ線 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825A77BD-DEF4-4CF9-098A-7FF662CE7DA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="62" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8212137" y="6396037"/>
+          <a:ext cx="412750" cy="955675"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>168274</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="コネクタ: カギ線 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCEBBAA-BDDE-F77F-3454-7EF120DEEDCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4900612" y="4208462"/>
+          <a:ext cx="3505200" cy="1082675"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8DDF47-65F8-56CB-24BF-4366D3129934}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8686800" y="6492875"/>
+          <a:ext cx="203200" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="コネクタ: カギ線 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB9C66A-DA06-96F7-A0E5-0EB74008EFC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2720975" y="1619250"/>
+          <a:ext cx="7654925" cy="4873625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2986"/>
+            <a:gd name="adj2" fmla="val 104691"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線コネクタ 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CAE845D-FA36-2A01-AD8A-D89009234120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6978650" y="1784350"/>
+          <a:ext cx="3619500" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直線コネクタ 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC12735-D4F0-7A68-7764-E345291A0067}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10344150" y="2819400"/>
+          <a:ext cx="254000" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3742C81-2F57-7768-67B1-46E2E0A7F0AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="431800" y="2228850"/>
+          <a:ext cx="800100" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>認証失敗</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4932B4-9793-514E-8F16-FE28A2822E64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4375150" y="2343150"/>
+          <a:ext cx="806450" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>登録失敗</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="正方形/長方形 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12BB4B2-B7A5-1CF8-DB27-3A34ADCCF5E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="3473450"/>
+          <a:ext cx="793750" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>編集失敗</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="正方形/長方形 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2448CD03-BBA5-0023-9D7C-CD92EE866D1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="7143750"/>
+          <a:ext cx="806450" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>削除失敗</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="四角形: 角を丸くする 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DADA225E-0145-0991-808C-CFD6BC5E8970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7181850" y="3835400"/>
+          <a:ext cx="1619250" cy="336550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コメント登録確認画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>117474</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="コネクタ: カギ線 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0A60FF2-AFE4-5450-9440-7C8C7ABE419E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="89" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6143625" y="2965449"/>
+          <a:ext cx="1006475" cy="1069975"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線矢印コネクタ 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2835975-7F7C-27B4-5668-A86705E092B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="89" idx="3"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8801100" y="3990975"/>
+          <a:ext cx="69850" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="四角形: 角を丸くする 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B07BF9-8194-8C5B-721F-58823A99359F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7181850" y="4864100"/>
+          <a:ext cx="1612900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コメント削除確認画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="四角形: 角を丸くする 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{086E572D-1352-14D2-9A39-E09667159F8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877300" y="4864100"/>
+          <a:ext cx="1612900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コメント削除完了画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="四角形: 角を丸くする 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F88B520-AB25-A226-2ABB-DC295577B63F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8883650" y="5422900"/>
+          <a:ext cx="920750" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>エラー画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>168274</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>577849</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="コネクタ: カギ線 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AEF27BD-F2E2-1B95-C6C1-3044CA375A59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="100" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5630862" y="3478212"/>
+          <a:ext cx="2032000" cy="1069975"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>225425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="直線矢印コネクタ 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A35266A-CA71-B920-D330-D4998A86A7FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="100" idx="3"/>
+          <a:endCxn id="101" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8794750" y="5026025"/>
+          <a:ext cx="82550" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>434975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="コネクタ: カギ線 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAAD4BF7-D1CE-AABF-4F38-1B449899C505}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="6445250" y="923925"/>
+          <a:ext cx="1181100" cy="5289550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -11290"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>6351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>120651</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="コネクタ: カギ線 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D4B8414-916C-5180-B0A8-A3C22F8A7738}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="6002338" y="1366838"/>
+          <a:ext cx="1714500" cy="4937125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6666"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>6351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="コネクタ: カギ線 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A001B2-7A8D-588F-F488-C4FEDAF9DA75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="101" idx="2"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="5932488" y="1436688"/>
+          <a:ext cx="2209800" cy="5292725"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5747"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="正方形/長方形 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300623A7-5F1D-74D8-D711-847AA61B6D0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7994650" y="4552950"/>
+          <a:ext cx="793750" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>登録失敗</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="正方形/長方形 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36041142-BB8B-A588-D435-4B2FFD0600F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8032750" y="5645150"/>
+          <a:ext cx="806450" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>削除</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>失敗</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>174624</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="コネクタ: カギ線 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3561EEE6-E2E5-B0B0-2512-82E16326C399}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="89" idx="2"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8255000" y="3222624"/>
+          <a:ext cx="346075" cy="873125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="コネクタ: カギ線 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CED47F6-F72C-52B7-5C7F-89EA5381643D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="102" idx="2"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="5499100" y="1184275"/>
+          <a:ext cx="2736850" cy="4953000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -8353"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -5295,15 +8789,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3693A2B4-38B7-4DD9-A943-2201A28C9E9C}">
   <dimension ref="C1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.19921875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16" width="7.09765625" style="1" customWidth="1"/>
+    <col min="1" max="16" width="7.08203125" style="1" customWidth="1"/>
     <col min="17" max="26" width="8" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="13.19921875" style="1"/>
+    <col min="27" max="16384" width="13.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1" thickBot="1"/>
@@ -6475,12 +9967,12 @@
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.19921875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="4.69921875" style="1" customWidth="1"/>
-    <col min="4" max="10" width="15.296875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="4.6640625" style="1" customWidth="1"/>
+    <col min="4" max="10" width="15.33203125" style="1" customWidth="1"/>
     <col min="11" max="26" width="8" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="13.19921875" style="1"/>
+    <col min="27" max="16384" width="13.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
@@ -6566,12 +10058,12 @@
       <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="33" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="25"/>
@@ -6579,15 +10071,15 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
-      <c r="J6" s="33"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="24"/>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="33" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="25"/>
@@ -6595,15 +10087,15 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="33"/>
+      <c r="J7" s="34"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="32" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="24"/>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="33" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="25"/>
@@ -6611,7 +10103,7 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="33"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
       <c r="A9" s="40" t="s">
@@ -6629,7 +10121,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="33"/>
+      <c r="J9" s="34"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
       <c r="A10" s="41"/>
@@ -6637,7 +10129,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="24"/>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="25"/>
@@ -6645,7 +10137,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="33"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
       <c r="A11" s="42"/>
@@ -6653,7 +10145,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="24"/>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="25"/>
@@ -6661,15 +10153,15 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="33"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="24"/>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="25"/>
@@ -6677,7 +10169,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="33"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
       <c r="A13" s="35" t="s">
@@ -7694,6 +11186,10 @@
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="F2:G4"/>
     <mergeCell ref="H2:H4"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:J13"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="A8:C8"/>
@@ -7705,10 +11201,6 @@
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -7723,16 +11215,16 @@
   </sheetPr>
   <dimension ref="A1:J1037"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.19921875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="4.69921875" style="1" customWidth="1"/>
-    <col min="4" max="10" width="15.296875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="4.6640625" style="1" customWidth="1"/>
+    <col min="4" max="10" width="15.33203125" style="1" customWidth="1"/>
     <col min="11" max="26" width="8" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="13.19921875" style="1"/>
+    <col min="27" max="16384" width="13.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
@@ -8228,7 +11720,7 @@
       <c r="J39" s="100"/>
     </row>
     <row r="40" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A40" s="79" t="s">
+      <c r="A40" s="75" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="25"/>
@@ -8239,15 +11731,15 @@
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
-      <c r="J40" s="33"/>
+      <c r="J40" s="34"/>
     </row>
     <row r="41" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A41" s="79" t="s">
+      <c r="A41" s="75" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="24"/>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="33" t="s">
         <v>44</v>
       </c>
       <c r="E41" s="25"/>
@@ -8262,7 +11754,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A42" s="79" t="s">
+      <c r="A42" s="75" t="s">
         <v>26</v>
       </c>
       <c r="B42" s="25"/>
@@ -8279,11 +11771,11 @@
       <c r="G42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="80" t="s">
+      <c r="H42" s="76" t="s">
         <v>19</v>
       </c>
       <c r="I42" s="25"/>
-      <c r="J42" s="33"/>
+      <c r="J42" s="34"/>
     </row>
     <row r="43" spans="1:10" ht="19.5" customHeight="1">
       <c r="A43" s="94" t="s">
@@ -8299,12 +11791,12 @@
       <c r="G43" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="32"/>
+      <c r="H43" s="33"/>
       <c r="I43" s="25"/>
-      <c r="J43" s="33"/>
+      <c r="J43" s="34"/>
     </row>
     <row r="44" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A44" s="79" t="s">
+      <c r="A44" s="75" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="25"/>
@@ -8315,15 +11807,15 @@
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
-      <c r="J44" s="33"/>
+      <c r="J44" s="34"/>
     </row>
     <row r="45" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A45" s="79" t="s">
+      <c r="A45" s="75" t="s">
         <v>24</v>
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="24"/>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="33" t="s">
         <v>55</v>
       </c>
       <c r="E45" s="25"/>
@@ -8338,7 +11830,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A46" s="79" t="s">
+      <c r="A46" s="75" t="s">
         <v>26</v>
       </c>
       <c r="B46" s="25"/>
@@ -8355,17 +11847,17 @@
       <c r="G46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="80" t="s">
+      <c r="H46" s="76" t="s">
         <v>19</v>
       </c>
       <c r="I46" s="25"/>
-      <c r="J46" s="33"/>
+      <c r="J46" s="34"/>
     </row>
     <row r="47" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="76"/>
+      <c r="B47" s="71"/>
       <c r="C47" s="81"/>
       <c r="D47" s="45"/>
       <c r="E47" s="45" t="s">
@@ -8376,23 +11868,23 @@
         <v>54</v>
       </c>
       <c r="H47" s="65"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="72"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="78"/>
     </row>
     <row r="48" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A48" s="77"/>
-      <c r="B48" s="78"/>
+      <c r="A48" s="72"/>
+      <c r="B48" s="73"/>
       <c r="C48" s="82"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
       <c r="H48" s="83"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="74"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="80"/>
     </row>
     <row r="49" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A49" s="79" t="s">
+      <c r="A49" s="75" t="s">
         <v>23</v>
       </c>
       <c r="B49" s="25"/>
@@ -8403,15 +11895,15 @@
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
-      <c r="J49" s="33"/>
+      <c r="J49" s="34"/>
     </row>
     <row r="50" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A50" s="79" t="s">
+      <c r="A50" s="75" t="s">
         <v>24</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="24"/>
-      <c r="D50" s="32" t="s">
+      <c r="D50" s="33" t="s">
         <v>56</v>
       </c>
       <c r="E50" s="25"/>
@@ -8426,7 +11918,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A51" s="79" t="s">
+      <c r="A51" s="75" t="s">
         <v>26</v>
       </c>
       <c r="B51" s="25"/>
@@ -8443,17 +11935,17 @@
       <c r="G51" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H51" s="80" t="s">
+      <c r="H51" s="76" t="s">
         <v>19</v>
       </c>
       <c r="I51" s="25"/>
-      <c r="J51" s="33"/>
+      <c r="J51" s="34"/>
     </row>
     <row r="52" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A52" s="75" t="s">
+      <c r="A52" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="76"/>
+      <c r="B52" s="71"/>
       <c r="C52" s="81"/>
       <c r="D52" s="84"/>
       <c r="E52" s="45" t="s">
@@ -8468,11 +11960,11 @@
       <c r="J52" s="90"/>
     </row>
     <row r="53" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A53" s="77"/>
-      <c r="B53" s="78"/>
+      <c r="A53" s="72"/>
+      <c r="B53" s="73"/>
       <c r="C53" s="82"/>
       <c r="D53" s="85"/>
-      <c r="E53" s="70"/>
+      <c r="E53" s="74"/>
       <c r="F53" s="85"/>
       <c r="G53" s="87"/>
       <c r="H53" s="91"/>
@@ -8480,7 +11972,7 @@
       <c r="J53" s="93"/>
     </row>
     <row r="54" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A54" s="79" t="s">
+      <c r="A54" s="75" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="25"/>
@@ -8491,15 +11983,15 @@
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
-      <c r="J54" s="33"/>
+      <c r="J54" s="34"/>
     </row>
     <row r="55" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A55" s="79" t="s">
+      <c r="A55" s="75" t="s">
         <v>24</v>
       </c>
       <c r="B55" s="25"/>
       <c r="C55" s="24"/>
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="33" t="s">
         <v>57</v>
       </c>
       <c r="E55" s="25"/>
@@ -8514,7 +12006,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A56" s="79" t="s">
+      <c r="A56" s="75" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="25"/>
@@ -8531,11 +12023,11 @@
       <c r="G56" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H56" s="80" t="s">
+      <c r="H56" s="76" t="s">
         <v>19</v>
       </c>
       <c r="I56" s="25"/>
-      <c r="J56" s="33"/>
+      <c r="J56" s="34"/>
     </row>
     <row r="57" spans="1:10" ht="19.5" customHeight="1">
       <c r="A57" s="94" t="s">
@@ -8551,12 +12043,12 @@
       <c r="G57" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H57" s="32"/>
+      <c r="H57" s="33"/>
       <c r="I57" s="25"/>
-      <c r="J57" s="33"/>
+      <c r="J57" s="34"/>
     </row>
     <row r="58" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A58" s="79" t="s">
+      <c r="A58" s="75" t="s">
         <v>23</v>
       </c>
       <c r="B58" s="25"/>
@@ -8567,16 +12059,16 @@
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
-      <c r="J58" s="33"/>
+      <c r="J58" s="34"/>
     </row>
     <row r="59" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A59" s="79" t="s">
+      <c r="A59" s="75" t="s">
         <v>24</v>
       </c>
       <c r="B59" s="25"/>
       <c r="C59" s="24"/>
-      <c r="D59" s="32" t="s">
-        <v>44</v>
+      <c r="D59" s="33" t="s">
+        <v>62</v>
       </c>
       <c r="E59" s="25"/>
       <c r="F59" s="25"/>
@@ -8590,7 +12082,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A60" s="79" t="s">
+      <c r="A60" s="75" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="25"/>
@@ -8607,46 +12099,46 @@
       <c r="G60" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H60" s="80" t="s">
+      <c r="H60" s="76" t="s">
         <v>19</v>
       </c>
       <c r="I60" s="25"/>
-      <c r="J60" s="33"/>
+      <c r="J60" s="34"/>
     </row>
     <row r="61" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A61" s="75" t="s">
-        <v>58</v>
+      <c r="A61" s="70" t="s">
+        <v>61</v>
       </c>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
       <c r="D61" s="45"/>
       <c r="E61" s="45" t="s">
         <v>47</v>
       </c>
       <c r="F61" s="45"/>
       <c r="G61" s="45" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
-      <c r="H61" s="71" t="s">
+      <c r="H61" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="I61" s="71"/>
-      <c r="J61" s="72"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="78"/>
     </row>
     <row r="62" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A62" s="77"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="73"/>
-      <c r="J62" s="74"/>
+      <c r="A62" s="72"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="79"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="80"/>
     </row>
     <row r="63" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A63" s="79" t="s">
+      <c r="A63" s="75" t="s">
         <v>23</v>
       </c>
       <c r="B63" s="25"/>
@@ -8657,16 +12149,16 @@
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="33"/>
+      <c r="J63" s="34"/>
     </row>
     <row r="64" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A64" s="79" t="s">
+      <c r="A64" s="75" t="s">
         <v>24</v>
       </c>
       <c r="B64" s="25"/>
       <c r="C64" s="24"/>
-      <c r="D64" s="32" t="s">
-        <v>44</v>
+      <c r="D64" s="33" t="s">
+        <v>62</v>
       </c>
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>
@@ -8680,7 +12172,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A65" s="79" t="s">
+      <c r="A65" s="75" t="s">
         <v>26</v>
       </c>
       <c r="B65" s="25"/>
@@ -8697,43 +12189,43 @@
       <c r="G65" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="80" t="s">
+      <c r="H65" s="76" t="s">
         <v>19</v>
       </c>
       <c r="I65" s="25"/>
-      <c r="J65" s="33"/>
+      <c r="J65" s="34"/>
     </row>
     <row r="66" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A66" s="75" t="s">
-        <v>58</v>
+      <c r="A66" s="70" t="s">
+        <v>61</v>
       </c>
-      <c r="B66" s="76"/>
-      <c r="C66" s="76"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="71"/>
       <c r="D66" s="45"/>
       <c r="E66" s="45" t="s">
         <v>47</v>
       </c>
       <c r="F66" s="45"/>
       <c r="G66" s="45" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
-      <c r="H66" s="71" t="s">
+      <c r="H66" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="I66" s="71"/>
-      <c r="J66" s="72"/>
+      <c r="I66" s="77"/>
+      <c r="J66" s="78"/>
     </row>
     <row r="67" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A67" s="77"/>
-      <c r="B67" s="78"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="73"/>
-      <c r="I67" s="73"/>
-      <c r="J67" s="74"/>
+      <c r="A67" s="72"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="79"/>
+      <c r="I67" s="79"/>
+      <c r="J67" s="80"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="69" spans="1:10" ht="12.75" customHeight="1"/>
@@ -9739,17 +13231,17 @@
     <mergeCell ref="H57:J57"/>
     <mergeCell ref="A58:J58"/>
     <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A61:C62"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="A45:C45"/>
     <mergeCell ref="D59:H59"/>
     <mergeCell ref="A55:C55"/>
     <mergeCell ref="A54:J54"/>
     <mergeCell ref="G47:G48"/>
     <mergeCell ref="H47:J48"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="E66:E67"/>
     <mergeCell ref="A47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
@@ -9761,22 +13253,22 @@
     <mergeCell ref="H51:J51"/>
     <mergeCell ref="A49:J49"/>
     <mergeCell ref="D50:H50"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:J67"/>
-    <mergeCell ref="A61:C62"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="F61:F62"/>
     <mergeCell ref="G61:G62"/>
     <mergeCell ref="H61:J62"/>
+    <mergeCell ref="A66:C67"/>
+    <mergeCell ref="D66:D67"/>
     <mergeCell ref="A63:J63"/>
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="D64:H64"/>
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="H65:J65"/>
-    <mergeCell ref="A66:C67"/>
-    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:J67"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9789,16 +13281,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8CD92E-4CFD-439D-860D-4FB22B511F0A}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.19921875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="4.69921875" style="1" customWidth="1"/>
-    <col min="4" max="11" width="15.296875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="4.6640625" style="1" customWidth="1"/>
+    <col min="4" max="11" width="15.33203125" style="1" customWidth="1"/>
     <col min="12" max="27" width="8" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="13.19921875" style="1"/>
+    <col min="28" max="16384" width="13.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
@@ -9835,7 +13327,7 @@
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="65"/>
-      <c r="G2" s="71"/>
+      <c r="G2" s="77"/>
       <c r="H2" s="66"/>
       <c r="I2" s="69">
         <v>45637</v>
@@ -11514,26 +15006,20 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>62</v>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/設計書/Shino/プロジェクト型演習_成果物フォーマット(コメント).xlsx
+++ b/設計書/Shino/プロジェクト型演習_成果物フォーマット(コメント).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\設計書\Shino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8BA35A-0AAA-46F3-98EE-370708C0EA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F78139-872B-4DFE-BBE0-DF4C8FFEF7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{5C6D9BCF-9126-452D-B65E-8AFDE7F98C44}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{5C6D9BCF-9126-452D-B65E-8AFDE7F98C44}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -1287,45 +1287,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1357,6 +1318,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1401,10 +1371,73 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1413,40 +1446,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1473,28 +1482,19 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1759,8 +1759,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1776,7 +1776,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="57150" y="1162050"/>
-          <a:ext cx="2336800" cy="3549650"/>
+          <a:ext cx="2336800" cy="3962400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1965,15 +1965,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1988,8 +1988,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133350" y="1435100"/>
-          <a:ext cx="2197100" cy="450850"/>
+          <a:off x="139700" y="1422400"/>
+          <a:ext cx="2171700" cy="450850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2054,15 +2054,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2077,8 +2077,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133350" y="1949450"/>
-          <a:ext cx="2197100" cy="438150"/>
+          <a:off x="127000" y="2457450"/>
+          <a:ext cx="2171700" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2143,15 +2143,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2166,8 +2166,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="139700" y="2457450"/>
-          <a:ext cx="2197100" cy="469900"/>
+          <a:off x="127000" y="2978150"/>
+          <a:ext cx="2171700" cy="469900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2644,7 +2644,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>638988</xdr:colOff>
+      <xdr:colOff>196300</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2662,7 +2662,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2552700" y="1492250"/>
-          <a:ext cx="3826688" cy="3346450"/>
+          <a:ext cx="3384000" cy="3346450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2713,15 +2713,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
+      <xdr:colOff>247649</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1004185</xdr:colOff>
+      <xdr:colOff>990449</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2736,8 +2736,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6470650" y="1485900"/>
-          <a:ext cx="3779135" cy="3365500"/>
+          <a:off x="5988049" y="1492250"/>
+          <a:ext cx="4248000" cy="3365500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2851,15 +2851,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>728331</xdr:colOff>
+      <xdr:colOff>245731</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1035</xdr:rowOff>
+      <xdr:rowOff>7385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>385431</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1071231</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>96285</xdr:rowOff>
+      <xdr:rowOff>102635</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2874,8 +2874,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6513181" y="1391685"/>
-          <a:ext cx="831850" cy="95250"/>
+          <a:off x="5986131" y="1398035"/>
+          <a:ext cx="825500" cy="95250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3292,15 +3292,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1034312</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>46074</xdr:rowOff>
+      <xdr:colOff>564412</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>96874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>759490</xdr:colOff>
+      <xdr:colOff>289590</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>118582</xdr:rowOff>
+      <xdr:rowOff>10632</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3315,8 +3315,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6819162" y="1912974"/>
-          <a:ext cx="3249428" cy="1342508"/>
+          <a:off x="6304812" y="1805024"/>
+          <a:ext cx="3230378" cy="1342508"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3450,15 +3450,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>869950</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>901450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3473,8 +3473,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6610350" y="3511550"/>
-          <a:ext cx="3549650" cy="793750"/>
+          <a:off x="6115050" y="3422650"/>
+          <a:ext cx="4032000" cy="1224000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3627,6 +3627,187 @@
             </a:rPr>
             <a:t>(tucbean:TaskUserCommentBean):int</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+ commentList(taskId:int):</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>List&lt;TaskUserCommentBean&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> deleteC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ommentList(commentId:int):</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>List&lt;TaskUserCommentBean&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -3768,15 +3949,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1033278</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>22299</xdr:rowOff>
+      <xdr:colOff>576078</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>752106</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>22299</xdr:rowOff>
+      <xdr:colOff>294906</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66749</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3791,8 +3972,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6818128" y="2206699"/>
-          <a:ext cx="3243078" cy="0"/>
+          <a:off x="6316478" y="2092399"/>
+          <a:ext cx="3224028" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3823,15 +4004,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1025894</xdr:colOff>
+      <xdr:colOff>568694</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>67782</xdr:rowOff>
+      <xdr:rowOff>4282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>732022</xdr:colOff>
+      <xdr:colOff>274822</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>67782</xdr:rowOff>
+      <xdr:rowOff>4282</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3846,8 +4027,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6810744" y="2887182"/>
-          <a:ext cx="3230378" cy="0"/>
+          <a:off x="6309094" y="2823682"/>
+          <a:ext cx="3211328" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3877,16 +4058,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1011201</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>118582</xdr:rowOff>
+      <xdr:rowOff>10632</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>312701</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>53850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3903,9 +4084,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8385175" y="3255482"/>
-          <a:ext cx="4726" cy="256068"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7920001" y="3147532"/>
+          <a:ext cx="211049" cy="275118"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3944,9 +4125,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>869950</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3965,7 +4146,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="5626101" y="3343275"/>
-          <a:ext cx="984249" cy="565150"/>
+          <a:ext cx="488949" cy="691375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3998,15 +4179,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>45041</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>45041</xdr:rowOff>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108541</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4020,9 +4201,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6642100" y="3816941"/>
-          <a:ext cx="3568700" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="6121400" y="3714750"/>
+          <a:ext cx="4019550" cy="6941"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4053,9 +4234,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -4079,8 +4260,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2311400" y="2692400"/>
-          <a:ext cx="986909" cy="650875"/>
+          <a:off x="2298700" y="3213100"/>
+          <a:ext cx="999609" cy="130175"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4115,9 +4296,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -4141,8 +4322,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2305050" y="2168525"/>
-          <a:ext cx="993259" cy="1174750"/>
+          <a:off x="2298700" y="2676525"/>
+          <a:ext cx="999609" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4177,13 +4358,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
+      <xdr:colOff>53849</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
@@ -4203,12 +4384,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="3384550" y="2111375"/>
-          <a:ext cx="2806700" cy="7194550"/>
+          <a:off x="3428162" y="2409112"/>
+          <a:ext cx="2465350" cy="6940425"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -2489"/>
+            <a:gd name="adj1" fmla="val -9273"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
@@ -4507,15 +4688,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4530,7 +4711,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="139700" y="3016250"/>
+          <a:off x="127000" y="3524250"/>
           <a:ext cx="2171700" cy="450850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4596,15 +4777,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4619,7 +4800,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="146050" y="3536950"/>
+          <a:off x="133350" y="4064000"/>
           <a:ext cx="2171700" cy="450850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4685,15 +4866,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4708,7 +4889,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="146050" y="4070350"/>
+          <a:off x="133350" y="4603750"/>
           <a:ext cx="2171700" cy="450850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4774,15 +4955,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
+      <xdr:colOff>69850</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1063109</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4800,8 +4981,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2317750" y="3343275"/>
-          <a:ext cx="980559" cy="419100"/>
+          <a:off x="2305050" y="3343275"/>
+          <a:ext cx="993259" cy="946150"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -4834,15 +5015,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
+      <xdr:colOff>69850</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1063109</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4860,8 +5041,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2317750" y="3343275"/>
-          <a:ext cx="980559" cy="952500"/>
+          <a:off x="2305050" y="3343275"/>
+          <a:ext cx="993259" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -4894,13 +5075,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>117475</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>117474</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
+      <xdr:colOff>53849</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -4920,12 +5101,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2584450" y="2905125"/>
-          <a:ext cx="4400550" cy="7200900"/>
+          <a:off x="2628062" y="3202862"/>
+          <a:ext cx="4059200" cy="6946775"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -5195"/>
+            <a:gd name="adj1" fmla="val -5632"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -4951,6 +5132,95 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{371DA357-6EAD-EDAC-3BEA-80F9546A6BE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="139700" y="1936750"/>
+          <a:ext cx="2159000" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;&lt;jsp&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>comment-register.jsp</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5730,16 +6000,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5754,7 +6024,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8864600" y="4343400"/>
+          <a:off x="7219950" y="3543300"/>
           <a:ext cx="927100" cy="349250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5946,16 +6216,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5970,7 +6240,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8870950" y="3822700"/>
+          <a:off x="7200900" y="3111500"/>
           <a:ext cx="1619250" cy="336550"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7468,79 +7738,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="四角形: 角を丸くする 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DADA225E-0145-0991-808C-CFD6BC5E8970}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7181850" y="3835400"/>
-          <a:ext cx="1619250" cy="336550"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>コメント登録確認画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>168275</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -7548,9 +7745,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>117474</xdr:rowOff>
+      <xdr:rowOff>79374</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7562,72 +7759,17 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="17" idx="2"/>
-          <a:endCxn id="89" idx="1"/>
+          <a:endCxn id="18" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6143625" y="2965449"/>
-          <a:ext cx="1006475" cy="1069975"/>
+          <a:off x="6172200" y="2251074"/>
+          <a:ext cx="968375" cy="1089025"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="93" name="直線矢印コネクタ 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2835975-7F7C-27B4-5668-A86705E092B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="89" idx="3"/>
-          <a:endCxn id="18" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8801100" y="3990975"/>
-          <a:ext cx="69850" cy="12700"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -7990,10 +8132,10 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>434975</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8011,12 +8153,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="6445250" y="923925"/>
-          <a:ext cx="1181100" cy="5289550"/>
+          <a:off x="5622925" y="1060450"/>
+          <a:ext cx="1155700" cy="3619500"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -11290"/>
+            <a:gd name="adj1" fmla="val -3846"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -8051,10 +8193,10 @@
       <xdr:rowOff>6351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>120651</xdr:rowOff>
+      <xdr:rowOff>6351</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8072,12 +8214,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="6002338" y="1366838"/>
-          <a:ext cx="1714500" cy="4937125"/>
+          <a:off x="5237163" y="1446213"/>
+          <a:ext cx="1600200" cy="3292475"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -6666"/>
+            <a:gd name="adj1" fmla="val -14286"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -8167,16 +8309,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8191,7 +8333,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7994650" y="4552950"/>
+          <a:off x="6356350" y="3841750"/>
           <a:ext cx="793750" cy="215900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8352,16 +8494,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>174624</xdr:rowOff>
+      <xdr:rowOff>60324</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8373,14 +8515,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="89" idx="2"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="17" idx="2"/>
           <a:endCxn id="15" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8255000" y="3222624"/>
-          <a:ext cx="346075" cy="873125"/>
+          <a:off x="5962650" y="2460624"/>
+          <a:ext cx="1406525" cy="1108075"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -9976,19 +10119,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="64" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="64" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="53"/>
+      <c r="G1" s="40"/>
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
@@ -10000,70 +10143,70 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="59"/>
+      <c r="A2" s="49"/>
       <c r="B2" s="27"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="65" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="69">
+      <c r="E2" s="56"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="59">
         <v>45636</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="48"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="27"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="55"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="43" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="25"/>
@@ -10071,15 +10214,15 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
-      <c r="J6" s="34"/>
+      <c r="J6" s="45"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="43" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="24"/>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="44" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="25"/>
@@ -10087,15 +10230,15 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="34"/>
+      <c r="J7" s="45"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="43" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="24"/>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="44" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="25"/>
@@ -10103,17 +10246,17 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="34"/>
+      <c r="J8" s="45"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="68" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="24"/>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="69" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="25"/>
@@ -10121,15 +10264,15 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="34"/>
+      <c r="J9" s="45"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="66"/>
+      <c r="B10" s="68" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="24"/>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="44" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="25"/>
@@ -10137,15 +10280,15 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="34"/>
+      <c r="J10" s="45"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="68" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="24"/>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="44" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="25"/>
@@ -10153,15 +10296,15 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="34"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="24"/>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="44" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="25"/>
@@ -10169,21 +10312,21 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="34"/>
+      <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="39"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="64"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -11174,18 +11317,6 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="A13:C13"/>
@@ -11201,6 +11332,18 @@
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -11228,19 +11371,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="64" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="64" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="53"/>
+      <c r="G1" s="40"/>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
@@ -11252,76 +11395,76 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="59"/>
+      <c r="A2" s="49"/>
       <c r="B2" s="27"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="65" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="69">
+      <c r="E2" s="56"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="59">
         <v>45636</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="48"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="27"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="59"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="27"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="36"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="96" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="55"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" thickBot="1">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="39"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
       <c r="A7" s="13"/>
@@ -11708,19 +11851,19 @@
       <c r="J38" s="16"/>
     </row>
     <row r="39" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A39" s="98"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="100"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="76"/>
     </row>
     <row r="40" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="78" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="25"/>
@@ -11731,15 +11874,15 @@
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
-      <c r="J40" s="34"/>
+      <c r="J40" s="45"/>
     </row>
     <row r="41" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="78" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="24"/>
-      <c r="D41" s="33" t="s">
+      <c r="D41" s="44" t="s">
         <v>44</v>
       </c>
       <c r="E41" s="25"/>
@@ -11754,7 +11897,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="78" t="s">
         <v>26</v>
       </c>
       <c r="B42" s="25"/>
@@ -11771,14 +11914,14 @@
       <c r="G42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="76" t="s">
+      <c r="H42" s="79" t="s">
         <v>19</v>
       </c>
       <c r="I42" s="25"/>
-      <c r="J42" s="34"/>
+      <c r="J42" s="45"/>
     </row>
     <row r="43" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="70" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="25"/>
@@ -11791,12 +11934,12 @@
       <c r="G43" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="33"/>
+      <c r="H43" s="44"/>
       <c r="I43" s="25"/>
-      <c r="J43" s="34"/>
+      <c r="J43" s="45"/>
     </row>
     <row r="44" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A44" s="75" t="s">
+      <c r="A44" s="78" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="25"/>
@@ -11807,15 +11950,15 @@
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
-      <c r="J44" s="34"/>
+      <c r="J44" s="45"/>
     </row>
     <row r="45" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A45" s="75" t="s">
+      <c r="A45" s="78" t="s">
         <v>24</v>
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="24"/>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="44" t="s">
         <v>55</v>
       </c>
       <c r="E45" s="25"/>
@@ -11830,7 +11973,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A46" s="75" t="s">
+      <c r="A46" s="78" t="s">
         <v>26</v>
       </c>
       <c r="B46" s="25"/>
@@ -11847,44 +11990,44 @@
       <c r="G46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="76" t="s">
+      <c r="H46" s="79" t="s">
         <v>19</v>
       </c>
       <c r="I46" s="25"/>
-      <c r="J46" s="34"/>
+      <c r="J46" s="45"/>
     </row>
     <row r="47" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A47" s="70" t="s">
+      <c r="A47" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="71"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45" t="s">
+      <c r="B47" s="81"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45" t="s">
+      <c r="F47" s="32"/>
+      <c r="G47" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="H47" s="65"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="78"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="97"/>
+      <c r="J47" s="98"/>
     </row>
     <row r="48" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A48" s="72"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="80"/>
+      <c r="A48" s="83"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="101"/>
     </row>
     <row r="49" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A49" s="75" t="s">
+      <c r="A49" s="78" t="s">
         <v>23</v>
       </c>
       <c r="B49" s="25"/>
@@ -11895,15 +12038,15 @@
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
-      <c r="J49" s="34"/>
+      <c r="J49" s="45"/>
     </row>
     <row r="50" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A50" s="75" t="s">
+      <c r="A50" s="78" t="s">
         <v>24</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="24"/>
-      <c r="D50" s="33" t="s">
+      <c r="D50" s="44" t="s">
         <v>56</v>
       </c>
       <c r="E50" s="25"/>
@@ -11918,7 +12061,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A51" s="75" t="s">
+      <c r="A51" s="78" t="s">
         <v>26</v>
       </c>
       <c r="B51" s="25"/>
@@ -11935,44 +12078,44 @@
       <c r="G51" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H51" s="76" t="s">
+      <c r="H51" s="79" t="s">
         <v>19</v>
       </c>
       <c r="I51" s="25"/>
-      <c r="J51" s="34"/>
+      <c r="J51" s="45"/>
     </row>
     <row r="52" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A52" s="70" t="s">
+      <c r="A52" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="45" t="s">
+      <c r="B52" s="81"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="84"/>
-      <c r="G52" s="86" t="s">
+      <c r="F52" s="86"/>
+      <c r="G52" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="H52" s="88"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="90"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="93"/>
     </row>
     <row r="53" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A53" s="72"/>
-      <c r="B53" s="73"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="93"/>
+      <c r="A53" s="83"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="94"/>
+      <c r="I53" s="95"/>
+      <c r="J53" s="96"/>
     </row>
     <row r="54" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A54" s="75" t="s">
+      <c r="A54" s="78" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="25"/>
@@ -11983,15 +12126,15 @@
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
-      <c r="J54" s="34"/>
+      <c r="J54" s="45"/>
     </row>
     <row r="55" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A55" s="75" t="s">
+      <c r="A55" s="78" t="s">
         <v>24</v>
       </c>
       <c r="B55" s="25"/>
       <c r="C55" s="24"/>
-      <c r="D55" s="33" t="s">
+      <c r="D55" s="44" t="s">
         <v>57</v>
       </c>
       <c r="E55" s="25"/>
@@ -12006,7 +12149,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A56" s="75" t="s">
+      <c r="A56" s="78" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="25"/>
@@ -12023,14 +12166,14 @@
       <c r="G56" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H56" s="76" t="s">
+      <c r="H56" s="79" t="s">
         <v>19</v>
       </c>
       <c r="I56" s="25"/>
-      <c r="J56" s="34"/>
+      <c r="J56" s="45"/>
     </row>
     <row r="57" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A57" s="94" t="s">
+      <c r="A57" s="70" t="s">
         <v>51</v>
       </c>
       <c r="B57" s="25"/>
@@ -12043,12 +12186,12 @@
       <c r="G57" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H57" s="33"/>
+      <c r="H57" s="44"/>
       <c r="I57" s="25"/>
-      <c r="J57" s="34"/>
+      <c r="J57" s="45"/>
     </row>
     <row r="58" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A58" s="75" t="s">
+      <c r="A58" s="78" t="s">
         <v>23</v>
       </c>
       <c r="B58" s="25"/>
@@ -12059,15 +12202,15 @@
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
-      <c r="J58" s="34"/>
+      <c r="J58" s="45"/>
     </row>
     <row r="59" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A59" s="75" t="s">
+      <c r="A59" s="78" t="s">
         <v>24</v>
       </c>
       <c r="B59" s="25"/>
       <c r="C59" s="24"/>
-      <c r="D59" s="33" t="s">
+      <c r="D59" s="44" t="s">
         <v>62</v>
       </c>
       <c r="E59" s="25"/>
@@ -12082,7 +12225,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A60" s="75" t="s">
+      <c r="A60" s="78" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="25"/>
@@ -12099,46 +12242,46 @@
       <c r="G60" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H60" s="76" t="s">
+      <c r="H60" s="79" t="s">
         <v>19</v>
       </c>
       <c r="I60" s="25"/>
-      <c r="J60" s="34"/>
+      <c r="J60" s="45"/>
     </row>
     <row r="61" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A61" s="70" t="s">
+      <c r="A61" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="71"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45" t="s">
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45" t="s">
+      <c r="F61" s="32"/>
+      <c r="G61" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="H61" s="77" t="s">
+      <c r="H61" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="I61" s="77"/>
-      <c r="J61" s="78"/>
+      <c r="I61" s="97"/>
+      <c r="J61" s="98"/>
     </row>
     <row r="62" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A62" s="72"/>
-      <c r="B62" s="73"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="74"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="80"/>
+      <c r="A62" s="83"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="88"/>
+      <c r="H62" s="100"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="101"/>
     </row>
     <row r="63" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A63" s="75" t="s">
+      <c r="A63" s="78" t="s">
         <v>23</v>
       </c>
       <c r="B63" s="25"/>
@@ -12149,15 +12292,15 @@
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="34"/>
+      <c r="J63" s="45"/>
     </row>
     <row r="64" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A64" s="75" t="s">
+      <c r="A64" s="78" t="s">
         <v>24</v>
       </c>
       <c r="B64" s="25"/>
       <c r="C64" s="24"/>
-      <c r="D64" s="33" t="s">
+      <c r="D64" s="44" t="s">
         <v>62</v>
       </c>
       <c r="E64" s="25"/>
@@ -12172,7 +12315,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A65" s="75" t="s">
+      <c r="A65" s="78" t="s">
         <v>26</v>
       </c>
       <c r="B65" s="25"/>
@@ -12189,43 +12332,43 @@
       <c r="G65" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="76" t="s">
+      <c r="H65" s="79" t="s">
         <v>19</v>
       </c>
       <c r="I65" s="25"/>
-      <c r="J65" s="34"/>
+      <c r="J65" s="45"/>
     </row>
     <row r="66" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A66" s="70" t="s">
+      <c r="A66" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="71"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45" t="s">
+      <c r="B66" s="81"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45" t="s">
+      <c r="F66" s="32"/>
+      <c r="G66" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="H66" s="77" t="s">
+      <c r="H66" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="I66" s="77"/>
-      <c r="J66" s="78"/>
+      <c r="I66" s="97"/>
+      <c r="J66" s="98"/>
     </row>
     <row r="67" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A67" s="72"/>
-      <c r="B67" s="73"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="74"/>
-      <c r="H67" s="79"/>
-      <c r="I67" s="79"/>
-      <c r="J67" s="80"/>
+      <c r="A67" s="83"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="88"/>
+      <c r="E67" s="88"/>
+      <c r="F67" s="88"/>
+      <c r="G67" s="88"/>
+      <c r="H67" s="100"/>
+      <c r="I67" s="100"/>
+      <c r="J67" s="101"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="69" spans="1:10" ht="12.75" customHeight="1"/>
@@ -13199,6 +13342,60 @@
     <row r="1037" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:J67"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:J62"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="A61:C62"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:J48"/>
+    <mergeCell ref="A47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="A52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:J53"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A59:C59"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="I2:I4"/>
@@ -13215,60 +13412,6 @@
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="A52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:J53"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:J48"/>
-    <mergeCell ref="A47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:J62"/>
-    <mergeCell ref="A66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:J67"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -13281,7 +13424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8CD92E-4CFD-439D-860D-4FB22B511F0A}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -13294,20 +13437,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="64" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="64" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="54" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="102"/>
-      <c r="H1" s="53"/>
+      <c r="H1" s="40"/>
       <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
@@ -13319,49 +13462,49 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="59"/>
+      <c r="A2" s="49"/>
       <c r="B2" s="27"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="65" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="69">
+      <c r="E2" s="56"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="59">
         <v>45637</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="48"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="27"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="67"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="103"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="49"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="17"/>
@@ -15008,7 +15151,7 @@
   </sheetPr>
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
